--- a/templates/AutomationOrg/AR.xlsx
+++ b/templates/AutomationOrg/AR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B188BF4A-80C9-48CE-BF5B-F39554CADD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258A391-D5BF-4D67-96EA-8404B4323D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="761" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="761" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="PickPackShip" sheetId="13" r:id="rId9"/>
     <sheet name="CreateInvoice" sheetId="18" r:id="rId10"/>
     <sheet name="CashReceipt" sheetId="21" r:id="rId11"/>
-    <sheet name="CashReceipt_ForeignCurr" sheetId="22" r:id="rId12"/>
-    <sheet name="ARATO" sheetId="25" r:id="rId13"/>
+    <sheet name="CRATO_HomeCurrency" sheetId="28" r:id="rId12"/>
+    <sheet name="CRATO_ForeignCurrency" sheetId="29" r:id="rId13"/>
+    <sheet name="CashReceipt_ForeignCurr" sheetId="22" r:id="rId14"/>
+    <sheet name="ARATO" sheetId="25" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
   <si>
     <t>API Mode</t>
   </si>
@@ -310,6 +312,54 @@
   </si>
   <si>
     <t>Automation5501-5 (Misc)</t>
+  </si>
+  <si>
+    <t>ComapnyID</t>
+  </si>
+  <si>
+    <t>aBb5f0000004JfX</t>
+  </si>
+  <si>
+    <t>BankAccountID</t>
+  </si>
+  <si>
+    <t>aBT5f000000wmhn</t>
+  </si>
+  <si>
+    <t>Check Payment</t>
+  </si>
+  <si>
+    <t>Transaction Currency</t>
+  </si>
+  <si>
+    <t>a8S5f0000004MBb</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TransactionAmountMaintCurr</t>
+  </si>
+  <si>
+    <t>HomeCurrtoMaintCurrRate</t>
+  </si>
+  <si>
+    <t>TransactionCurrtoHomeRate</t>
+  </si>
+  <si>
+    <t>Not Yet Processed</t>
+  </si>
+  <si>
+    <t>DiscountTakenMaint Curr</t>
+  </si>
+  <si>
+    <t>CompanyID</t>
+  </si>
+  <si>
+    <t>aBT5f000000wmm0</t>
+  </si>
+  <si>
+    <t>a8S5f0000004NwM</t>
   </si>
 </sst>
 </file>
@@ -370,12 +420,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,73 +825,86 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C10D85-D20E-4C13-9DFC-4F2EB5FB623F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
         <v>450</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>450</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -851,11 +915,211 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BC7194-6154-49CA-A8FF-099750D7B793}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE6E911-31A5-440C-882A-670D99BCCC80}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D908F63-2316-4814-8934-7E6571A2EA9A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +1187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3114FEA7-B434-48B1-B4F6-7B4F3BE8673D}">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -2267,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DBB80D-3005-41F8-86F4-7517B0EFE4BC}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
